--- a/excel/practice_datasets/class_412_10_11_30.xlsx
+++ b/excel/practice_datasets/class_412_10_11_30.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\ds\ds_materials\excel\practice_datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5800856C-22E1-4612-9FD5-128E480C9947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655BCB6-0973-4252-805F-F6EF292DBAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{E09A9CBD-452E-480D-9544-F7260C364327}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{E09A9CBD-452E-480D-9544-F7260C364327}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet7!$J$8:$M$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +43,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
     <t>Quantity</t>
   </si>
@@ -293,6 +320,180 @@
   <si>
     <t>xlookup</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Yoav</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Disney</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Tesla</t>
+  </si>
+  <si>
+    <t>Gil</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Use the VLOOKUP function to find where Tina and Dani work:</t>
+  </si>
+  <si>
+    <t>Workplace</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>William  Manship</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>William Johnson</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Thomas Bettle</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Ian Nash</t>
+  </si>
+  <si>
+    <t>Cairo</t>
+  </si>
+  <si>
+    <t>Margaret Turley</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Michael Kaye</t>
+  </si>
+  <si>
+    <t>Capetown</t>
+  </si>
+  <si>
+    <t>Paul Bell</t>
+  </si>
+  <si>
+    <t>Thomas Davies</t>
+  </si>
+  <si>
+    <t>Eric Green</t>
+  </si>
+  <si>
+    <t>Warsaw</t>
+  </si>
+  <si>
+    <t>Williamr Black</t>
+  </si>
+  <si>
+    <t>Estelle Cormack</t>
+  </si>
+  <si>
+    <t>Christopher Fallon</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>eric green</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>cairo</t>
+  </si>
+  <si>
+    <t>Eric green</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>match(value ,return index number)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary column, index no </t>
+  </si>
+  <si>
+    <t>berlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location </t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>Paul bell</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +503,7 @@
     <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,8 +524,23 @@
       <color rgb="FF1E73BE"/>
       <name val="Poppins"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,8 +553,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -346,11 +574,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -360,7 +606,16 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2257,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E49D5A-16FB-439F-9BF8-31B7FEAB1E71}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2728,9 +2983,9 @@
       <c r="E20" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20">
         <f ca="1">WEEKDAY(C22,2)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2755,9 +3010,9 @@
       </c>
       <c r="C22" s="5">
         <f ca="1">NOW()</f>
-        <v>45575.469105208336</v>
-      </c>
-      <c r="E22" s="4" t="s">
+        <v>45581.453976041666</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2767,9 +3022,9 @@
       </c>
       <c r="C23">
         <f ca="1">DAY(C22)</f>
-        <v>10</v>
-      </c>
-      <c r="E23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2778,7 +3033,7 @@
         <f ca="1">MONTH(C22)</f>
         <v>10</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="7" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2787,7 +3042,7 @@
         <f ca="1">YEAR(C22)</f>
         <v>2024</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="7" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2796,7 +3051,7 @@
         <f ca="1">TEXT(C22, "YYYY")</f>
         <v>2024</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="7" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2805,7 +3060,7 @@
         <f ca="1">TEXT(C22,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2818,4 +3073,985 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAFCF4E-2A8F-4DD6-B774-E30961ED0204}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="22" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="9">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="10">
+        <v>25</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="11">
+        <v>48</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="10">
+        <v>37</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="14" t="str">
+        <f>VLOOKUP(F5,A2:C9,3,0)</f>
+        <v>Netflix</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="11">
+        <v>52</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10">
+        <v>32</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7">
+        <v>33</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,B2:C9,2,0)</f>
+        <v>Tesla</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="11">
+        <v>33</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F003D105-6D18-4C89-9F62-8BD8911C5015}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView showFormulas="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.08984375" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2">
+        <v>13836</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>11771</v>
+      </c>
+      <c r="D3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4">
+        <v>13046</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4:L4">COLUMN(A1:D1)</f>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5">
+        <v>18276</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6">
+        <v>19327</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(H6,A2:C13,3,0)</f>
+        <v>16406</v>
+      </c>
+      <c r="J6" t="str">
+        <f>VLOOKUP(H6,A2:B13,2,0)</f>
+        <v>Warsaw</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>18996</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>10387</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9">
+        <v>12566</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10">
+        <v>16406</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11">
+        <v>15784</v>
+      </c>
+      <c r="D11">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="e">
+        <f>VLOOKUP(I11,A2:B13,2,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12">
+        <v>10959</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13">
+        <v>14562</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="I15">
+        <f>MATCH(H6,A2:A13,0)</f>
+        <v>9</v>
+      </c>
+      <c r="J15" cm="1">
+        <f t="array" ref="J15">INDEX(C2:C13,I15)</f>
+        <v>16406</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="H16" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17">
+        <f>MATCH(H6,A2:A13,0)</f>
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <f>INDEX(C2:C13,MATCH(H6,A2:A13,0))</f>
+        <v>16406</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.35">
+      <c r="I18">
+        <v>9</v>
+      </c>
+      <c r="J18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659339B-658E-4168-8155-37B6870C8BAE}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.90625" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.36328125" customWidth="1"/>
+    <col min="11" max="11" width="13.6328125" customWidth="1"/>
+    <col min="12" max="12" width="25.90625" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
+    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+      <c r="L2" t="s">
+        <v>101</v>
+      </c>
+      <c r="M2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3">
+        <v>13836</v>
+      </c>
+      <c r="C3">
+        <v>11771</v>
+      </c>
+      <c r="D3">
+        <v>13046</v>
+      </c>
+      <c r="E3">
+        <v>18276</v>
+      </c>
+      <c r="F3">
+        <v>19327</v>
+      </c>
+      <c r="G3">
+        <v>18996</v>
+      </c>
+      <c r="H3">
+        <v>10387</v>
+      </c>
+      <c r="I3">
+        <v>12566</v>
+      </c>
+      <c r="J3">
+        <v>16406</v>
+      </c>
+      <c r="K3">
+        <v>15784</v>
+      </c>
+      <c r="L3">
+        <v>10959</v>
+      </c>
+      <c r="M3">
+        <v>14562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4">
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="F4">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>35</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>43</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7">
+        <f>HLOOKUP(D7,B1:M3,3,0)</f>
+        <v>16406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9">
+        <v>13836</v>
+      </c>
+      <c r="M9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10">
+        <v>11771</v>
+      </c>
+      <c r="M10">
+        <v>32</v>
+      </c>
+      <c r="O10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L11">
+        <v>13046</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>129</v>
+      </c>
+      <c r="P11">
+        <f>MATCH(O11,K9:K20,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" t="s">
+        <v>107</v>
+      </c>
+      <c r="L12">
+        <v>18276</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
+      </c>
+      <c r="P12" t="str" cm="1">
+        <f t="array" ref="P12">INDEX(J9:J20,P11)</f>
+        <v>William Johnson</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13">
+        <v>19327</v>
+      </c>
+      <c r="M13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14">
+        <v>18996</v>
+      </c>
+      <c r="M14">
+        <v>35</v>
+      </c>
+      <c r="P14" t="str">
+        <f>INDEX(J9:J20,MATCH(O11,K9:K20,0))</f>
+        <v>William Johnson</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" t="s">
+        <v>105</v>
+      </c>
+      <c r="L15">
+        <v>10387</v>
+      </c>
+      <c r="M15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" t="s">
+        <v>111</v>
+      </c>
+      <c r="L16">
+        <v>12566</v>
+      </c>
+      <c r="M16">
+        <v>37</v>
+      </c>
+      <c r="O16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16">
+        <f>MATCH(O16,J8:M8,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17">
+        <v>16406</v>
+      </c>
+      <c r="M17">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" t="s">
+        <v>107</v>
+      </c>
+      <c r="L18">
+        <v>15784</v>
+      </c>
+      <c r="M18">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L19">
+        <v>10959</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20">
+        <v>14562</v>
+      </c>
+      <c r="M20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="N21" t="s">
+        <v>130</v>
+      </c>
+      <c r="O21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="N22" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22">
+        <f>_xlfn.XLOOKUP(N22,J9:J20,L9:L20)</f>
+        <v>16406</v>
+      </c>
+    </row>
+    <row r="23" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="L23" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="L24">
+        <v>18996</v>
+      </c>
+      <c r="M24" t="str">
+        <f>_xlfn.XLOOKUP(L24,L9:L20,J9:J20,"not in database")</f>
+        <v>Michael Kaye</v>
+      </c>
+    </row>
+    <row r="27" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="10:15" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" t="str" cm="1">
+        <f t="array" ref="L28:O28">_xlfn.XLOOKUP(K28,J9:J20,J9:M20,,,1)</f>
+        <v>Paul Bell</v>
+      </c>
+      <c r="M28" t="str">
+        <v>Bangkok</v>
+      </c>
+      <c r="N28">
+        <v>10387</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="J8:M20" xr:uid="{4659339B-658E-4168-8155-37B6870C8BAE}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3615D-6FDE-4D48-8210-A422D73C0DB7}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView showFormulas="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3">
+        <f>VLOOKUP(B3,Sheet5!A2:C13,3,0)</f>
+        <v>16406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/excel/practice_datasets/class_412_10_11_30.xlsx
+++ b/excel/practice_datasets/class_412_10_11_30.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\ds\ds_materials\excel\practice_datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655BCB6-0973-4252-805F-F6EF292DBAB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{E09A9CBD-452E-480D-9544-F7260C364327}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,14 +16,11 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet7!$J$8:$M$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$J$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet7!$J$8:$M$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -37,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -68,6 +61,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="135">
   <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>unit price</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
@@ -77,13 +82,13 @@
     <t>Profit ($)</t>
   </si>
   <si>
-    <t>Product Category</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>unit price</t>
+    <t>Sales amt</t>
+  </si>
+  <si>
+    <t>age group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">india </t>
   </si>
   <si>
     <t>East</t>
@@ -95,87 +100,75 @@
     <t>Laptop</t>
   </si>
   <si>
+    <t>teenager</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Office Chair</t>
+  </si>
+  <si>
+    <t>raj kumar</t>
+  </si>
+  <si>
+    <t>kumar</t>
+  </si>
+  <si>
     <t>Home Appliances</t>
   </si>
   <si>
     <t>Refrigerator</t>
   </si>
   <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>deep sha</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
     <t>North</t>
   </si>
   <si>
+    <t>big sofa</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>sam jha</t>
+  </si>
+  <si>
+    <t>jha</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>office Tablet</t>
+  </si>
+  <si>
+    <t>Dining Table</t>
+  </si>
+  <si>
+    <t>Headphones</t>
+  </si>
+  <si>
     <t>Smartphone</t>
   </si>
   <si>
-    <t>Furniture</t>
-  </si>
-  <si>
-    <t>Dining Table</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>Office Chair</t>
-  </si>
-  <si>
-    <t>Headphones</t>
-  </si>
-  <si>
     <t>Washing Machine</t>
   </si>
   <si>
-    <t>West</t>
-  </si>
-  <si>
     <t>Microwave Oven</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Sales amt</t>
-  </si>
-  <si>
-    <t>raj kumar</t>
-  </si>
-  <si>
-    <t>deep sha</t>
-  </si>
-  <si>
-    <t>sam jha</t>
-  </si>
-  <si>
-    <t>kumar</t>
-  </si>
-  <si>
-    <t>sha</t>
-  </si>
-  <si>
-    <t>jha</t>
-  </si>
-  <si>
-    <t>age group</t>
-  </si>
-  <si>
-    <t>teenager</t>
-  </si>
-  <si>
-    <t>senior</t>
-  </si>
-  <si>
-    <t>adult</t>
-  </si>
-  <si>
-    <t>office Tablet</t>
-  </si>
-  <si>
-    <t>big sofa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">india </t>
-  </si>
-  <si>
     <t xml:space="preserve">count </t>
   </si>
   <si>
@@ -188,85 +181,81 @@
     <t>profit/loss</t>
   </si>
   <si>
+    <t>name char length</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
     <t xml:space="preserve">total </t>
   </si>
   <si>
     <t>elec total sale</t>
   </si>
   <si>
+    <t>sumifs</t>
+  </si>
+  <si>
+    <t>averageifs</t>
+  </si>
+  <si>
+    <t>countifs</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>P name</t>
+  </si>
+  <si>
+    <t>total sales</t>
+  </si>
+  <si>
+    <t>avg sale</t>
+  </si>
+  <si>
+    <t>t. num of sales</t>
+  </si>
+  <si>
+    <t>sumif</t>
+  </si>
+  <si>
     <t>total sale amt</t>
   </si>
   <si>
+    <t>lapt</t>
+  </si>
+  <si>
+    <t>avgif</t>
+  </si>
+  <si>
     <t xml:space="preserve">f avg sale </t>
   </si>
   <si>
+    <t>countif</t>
+  </si>
+  <si>
     <t>total count fut</t>
   </si>
   <si>
-    <t>sumif</t>
-  </si>
-  <si>
-    <t>avgif</t>
-  </si>
-  <si>
-    <t>countif</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>P name</t>
-  </si>
-  <si>
-    <t>total sales</t>
-  </si>
-  <si>
-    <t>avg sale</t>
-  </si>
-  <si>
-    <t>t. num of sales</t>
-  </si>
-  <si>
-    <t>sumifs</t>
-  </si>
-  <si>
-    <t>averageifs</t>
-  </si>
-  <si>
-    <t>countifs</t>
-  </si>
-  <si>
-    <t>lapt</t>
-  </si>
-  <si>
     <t>iferror</t>
   </si>
   <si>
     <t>Text fuctions</t>
   </si>
   <si>
-    <t>name char length</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>find</t>
   </si>
   <si>
-    <t>search</t>
-  </si>
-  <si>
-    <t>SUBSTITUTE</t>
-  </si>
-  <si>
-    <t>TRIM</t>
-  </si>
-  <si>
-    <t>TEXT</t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="7"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="Poppins"/>
+        <charset val="134"/>
+      </rPr>
       <t>DAY, MONTH, YEAR</t>
     </r>
     <r>
@@ -275,24 +264,48 @@
         <sz val="7"/>
         <color rgb="FF1E73BE"/>
         <rFont val="Poppins"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
   </si>
   <si>
+    <t>search</t>
+  </si>
+  <si>
     <t>DATE</t>
   </si>
   <si>
+    <t>SUBSTITUTE</t>
+  </si>
+  <si>
     <t>WEEKDAY</t>
   </si>
   <si>
+    <t>replace</t>
+  </si>
+  <si>
     <t>EOMONTH</t>
   </si>
   <si>
+    <t>TEXT</t>
+  </si>
+  <si>
     <t>INDEX</t>
   </si>
   <si>
+    <t>TRIM</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="7"/>
+        <color rgb="FF1E73BE"/>
+        <rFont val="Poppins"/>
+        <charset val="134"/>
+      </rPr>
       <t>MATCH</t>
     </r>
     <r>
@@ -301,6 +314,7 @@
         <sz val="7"/>
         <color rgb="FF1E73BE"/>
         <rFont val="Poppins"/>
+        <charset val="134"/>
       </rPr>
       <t> </t>
     </r>
@@ -309,9 +323,6 @@
     <t>INDEX MATCH</t>
   </si>
   <si>
-    <t>replace</t>
-  </si>
-  <si>
     <t>hlookup</t>
   </si>
   <si>
@@ -336,6 +347,9 @@
     <t>Amazon</t>
   </si>
   <si>
+    <t>Use the VLOOKUP function to find where Tina and Dani work:</t>
+  </si>
+  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -348,6 +362,9 @@
     <t>Microsoft</t>
   </si>
   <si>
+    <t>Workplace</t>
+  </si>
+  <si>
     <t>Joe</t>
   </si>
   <si>
@@ -378,12 +395,6 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t>Use the VLOOKUP function to find where Tina and Dani work:</t>
-  </si>
-  <si>
-    <t>Workplace</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -414,12 +425,18 @@
     <t>Cairo</t>
   </si>
   <si>
+    <t>location</t>
+  </si>
+  <si>
     <t>Margaret Turley</t>
   </si>
   <si>
     <t>Shanghai</t>
   </si>
   <si>
+    <t>eric green</t>
+  </si>
+  <si>
     <t>Michael Kaye</t>
   </si>
   <si>
@@ -438,9 +455,15 @@
     <t>Warsaw</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>Williamr Black</t>
   </si>
   <si>
+    <t>cairo</t>
+  </si>
+  <si>
     <t>Estelle Cormack</t>
   </si>
   <si>
@@ -450,46 +473,34 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>eric green</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>match(value ,return index number)</t>
+  </si>
+  <si>
+    <t>index</t>
   </si>
   <si>
     <t>salary</t>
   </si>
   <si>
-    <t>cairo</t>
+    <t xml:space="preserve">salary column, index no </t>
   </si>
   <si>
     <t>Eric green</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>match(value ,return index number)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">salary column, index no </t>
-  </si>
-  <si>
     <t>berlin</t>
   </si>
   <si>
     <t xml:space="preserve">name </t>
   </si>
   <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location </t>
+  </si>
+  <si>
     <t>age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location </t>
-  </si>
-  <si>
-    <t>valu</t>
   </si>
   <si>
     <t>Paul bell</t>
@@ -498,17 +509,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="181" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="182" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="183" formatCode="_ [$₹-4009]\ * #,##0.00_ ;_ [$₹-4009]\ * \-#,##0.00_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -517,30 +549,168 @@
       <sz val="7"/>
       <color rgb="FF1E73BE"/>
       <name val="Poppins"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="7"/>
       <color rgb="FF1E73BE"/>
       <name val="Poppins"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,8 +735,194 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -592,48 +948,373 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FF00CC00"/>
         </patternFill>
       </fill>
@@ -643,43 +1324,8 @@
         <color rgb="FF006100"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -687,39 +1333,36 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF00CC00"/>
+      <color rgb="0000CC00"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8BCA2AEE-1BF7-497A-A6CB-82562E156960}" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
-  <autoFilter ref="A1:J11" xr:uid="{8BCA2AEE-1BF7-497A-A6CB-82562E156960}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
-    <sortCondition descending="1" ref="H1:H11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J11" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J11" etc:filterBottomFollowUsedRange="0"/>
+  <sortState ref="A1:J11">
+    <sortCondition ref="H1:H11" descending="1"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{33B9ACC2-4ABD-4E5E-AB79-B4BC7B31E603}" name="Region"/>
-    <tableColumn id="2" xr3:uid="{906D0A82-5640-44DE-9029-14F4A8FAEE18}" name="Product Category"/>
-    <tableColumn id="3" xr3:uid="{208C27EB-D692-4F05-8E69-48A0D5F86B39}" name="Product Name"/>
-    <tableColumn id="4" xr3:uid="{27599D8D-EEFA-4BC4-9429-F6C5D4642337}" name="unit price"/>
-    <tableColumn id="5" xr3:uid="{9419BE62-83C4-4D8C-850E-55A1FC98A6A7}" name="Quantity"/>
-    <tableColumn id="6" xr3:uid="{638F3BA4-35C9-4F78-9688-7789858F4CCC}" name="Discount (%)"/>
-    <tableColumn id="7" xr3:uid="{15DA5C96-6DC4-43BC-983E-718C3830C403}" name="Profit ($)"/>
-    <tableColumn id="8" xr3:uid="{B20B46E9-4B79-4C70-9791-5D07AEEE5754}" name="Sales amt">
+    <tableColumn id="1" name="Region"/>
+    <tableColumn id="2" name="Product Category"/>
+    <tableColumn id="3" name="Product Name"/>
+    <tableColumn id="4" name="unit price"/>
+    <tableColumn id="5" name="Quantity"/>
+    <tableColumn id="6" name="Discount (%)"/>
+    <tableColumn id="7" name="Profit ($)"/>
+    <tableColumn id="8" name="Sales amt">
       <calculatedColumnFormula>D2*E2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{898A1B43-997D-4883-986F-06E953ADE48D}" name="age group"/>
-    <tableColumn id="10" xr3:uid="{8E7228EC-A9BE-4E0D-B5C9-21ADD9B7E397}" name="india ">
+    <tableColumn id="9" name="age group"/>
+    <tableColumn id="10" name="india ">
       <calculatedColumnFormula>Table1[[#This Row],[Sales amt]]*83</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -770,7 +1413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -803,26 +1446,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -855,23 +1481,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1013,79 +1622,74 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{836D084C-1E7F-44EE-83BD-92DF49D3B3B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J11"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.6328125" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="17.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="14.6363636363636" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" customWidth="1"/>
-    <col min="10" max="10" width="20.54296875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="13.2727272727273" customWidth="1"/>
+    <col min="7" max="7" width="10.0909090909091" customWidth="1"/>
+    <col min="8" max="8" width="13.1818181818182" style="13" customWidth="1"/>
+    <col min="9" max="9" width="11.1818181818182" customWidth="1"/>
+    <col min="10" max="10" width="20.5454545454545" style="14" customWidth="1"/>
+    <col min="12" max="12" width="14.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1200</v>
@@ -1104,7 +1708,7 @@
         <v>1200</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J2">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -1115,12 +1719,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -1142,28 +1746,28 @@
         <v>1200</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J3">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>99600</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>900</v>
@@ -1182,28 +1786,28 @@
         <v>900</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J4">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>74700</v>
       </c>
       <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5">
         <v>800</v>
@@ -1222,28 +1826,28 @@
         <v>800</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J5">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>66400</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>350</v>
@@ -1262,28 +1866,28 @@
         <v>700</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J6">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>58100</v>
       </c>
       <c r="L6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>700</v>
@@ -1302,28 +1906,28 @@
         <v>700</v>
       </c>
       <c r="I7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J7">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>58100</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>100</v>
@@ -1342,28 +1946,28 @@
         <v>500</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J8">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>41500</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -1382,28 +1986,28 @@
         <v>500</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J9">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>41500</v>
       </c>
       <c r="L9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>500</v>
@@ -1422,22 +2026,22 @@
         <v>500</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J10">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>41500</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>150</v>
@@ -1456,25 +2060,32 @@
         <v>450</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>37350</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="duplicateValues" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D2:D11">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
@@ -1493,32 +2104,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E11">
-    <cfRule type="uniqueValues" dxfId="6" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18:F19">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2039CC24-EBF3-4FC7-AF23-C0AA30CA5CF4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
+    <cfRule type="uniqueValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F11">
-    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1">
-    <cfRule type="cellIs" dxfId="4" priority="11" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G11">
     <cfRule type="cellIs" dxfId="3" priority="10" operator="lessThan">
@@ -1534,16 +2123,31 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FD649AC1-20FE-44A7-888F-BB9B66F0C0A7}</x14:id>
+          <x14:id>{67b9ea72-bcc6-43af-9214-7ee7ccba8fe3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="top10" dxfId="2" priority="9" rank="2"/>
+    <cfRule type="top10" dxfId="4" priority="9" rank="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H1048576">
-    <cfRule type="top10" dxfId="1" priority="14" rank="3"/>
+    <cfRule type="top10" dxfId="5" priority="14" rank="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18:F19">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{58082c8d-2b86-4a63-b040-d90b5f866dc5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1551,7 +2155,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2039CC24-EBF3-4FC7-AF23-C0AA30CA5CF4}">
+          <x14:cfRule type="dataBar" id="{67b9ea72-bcc6-43af-9214-7ee7ccba8fe3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H2:H11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{58082c8d-2b86-4a63-b040-d90b5f866dc5}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -1563,17 +2178,6 @@
           </x14:cfRule>
           <xm:sqref>E18:F19</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FD649AC1-20FE-44A7-888F-BB9B66F0C0A7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>H2:H11</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -1581,56 +2185,57 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{606F188B-DAC3-42B4-9BD7-541370FF7124}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.6363636363636" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="13.9090909090909" customWidth="1"/>
+    <col min="5" max="5" width="13.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="18.9090909090909" customWidth="1"/>
+    <col min="7" max="7" width="11.5454545454545" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="14.90625" customWidth="1"/>
-    <col min="12" max="12" width="15.7265625" customWidth="1"/>
-    <col min="13" max="13" width="12.7265625" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="14.9090909090909" customWidth="1"/>
+    <col min="12" max="12" width="15.7272727272727" customWidth="1"/>
+    <col min="13" max="13" width="12.7272727272727" customWidth="1"/>
+    <col min="14" max="14" width="15.9090909090909" customWidth="1"/>
+    <col min="16" max="16" width="17.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>38</v>
@@ -1639,18 +2244,18 @@
         <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1200</v>
@@ -1669,7 +2274,7 @@
         <v>1200</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I2">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -1708,9 +2313,9 @@
         <v>hello world</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -1728,22 +2333,22 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">C3*$D$2</f>
+        <f t="shared" ref="G3:G12" si="0">C3*$D$2</f>
         <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I3">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>99600</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J11" si="1">IF(G3&gt;800,"High",IF(AND(G3&gt;400,G3&lt;800),"MEDIUM","low"))</f>
+        <f t="shared" ref="J3:J12" si="1">IF(G3&gt;800,"High",IF(AND(G3&gt;400,G3&lt;800),"MEDIUM","low"))</f>
         <v>low</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K11" si="2">IF(F3&gt;0,"profit","loss")</f>
+        <f t="shared" ref="K3:K12" si="2">IF(F3&gt;0,"profit","loss")</f>
         <v>profit</v>
       </c>
       <c r="L3">
@@ -1751,7 +2356,7 @@
         <v>12</v>
       </c>
       <c r="P3" t="str">
-        <f>_xlfn.CONCAT(A3, "-",B3)</f>
+        <f>_xlfn.CONCAT(A3,"-",B3)</f>
         <v>Furniture-Office Chair</v>
       </c>
       <c r="Q3" t="str">
@@ -1759,12 +2364,12 @@
         <v>Furniture-Office Chair</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>900</v>
@@ -1779,11 +2384,11 @@
         <v>150</v>
       </c>
       <c r="G4">
-        <f>C4*$D$2</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I4">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -1802,7 +2407,7 @@
         <v>12</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ref="P4:P15" si="5">_xlfn.CONCAT(A4, "-",B4)</f>
+        <f t="shared" ref="P4:P15" si="5">_xlfn.CONCAT(A4,"-",B4)</f>
         <v>Home Appliances-Refrigerator</v>
       </c>
       <c r="Q4" t="str">
@@ -1810,12 +2415,12 @@
         <v>Home Appliances-Refrigerator</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>800</v>
@@ -1834,7 +2439,7 @@
         <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -1861,12 +2466,12 @@
         <v>Furniture-big sofa</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>350</v>
@@ -1885,7 +2490,7 @@
         <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I6">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -1912,12 +2517,12 @@
         <v>Electronics-office Tablet</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>700</v>
@@ -1936,7 +2541,7 @@
         <v>700</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I7">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -1963,12 +2568,12 @@
         <v>Furniture-Dining Table</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -1987,7 +2592,7 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I8">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2014,12 +2619,12 @@
         <v>Electronics-Headphones</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -2038,7 +2643,7 @@
         <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2065,12 +2670,12 @@
         <v>Electronics-Smartphone</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -2089,7 +2694,7 @@
         <v>500</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I10">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2116,12 +2721,12 @@
         <v>Home Appliances-Washing Machine</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>150</v>
@@ -2140,7 +2745,7 @@
         <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2167,12 +2772,12 @@
         <v>Home Appliances-Microwave Oven</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1200</v>
@@ -2187,22 +2792,22 @@
         <v>200</v>
       </c>
       <c r="G12">
-        <f>C12*$D$2</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I12" t="e">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
         <v>#VALUE!</v>
       </c>
       <c r="J12" t="str">
-        <f>IF(G12&gt;800,"High",IF(AND(G12&gt;400,G12&lt;800),"MEDIUM","low"))</f>
+        <f t="shared" si="1"/>
         <v>High</v>
       </c>
       <c r="K12" t="str">
-        <f>IF(F12&gt;0,"profit","loss")</f>
+        <f t="shared" si="2"/>
         <v>profit</v>
       </c>
       <c r="L12">
@@ -2218,9 +2823,9 @@
         <v>Electronics-Laptop</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2238,11 +2843,11 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="6">C13*$D$2</f>
+        <f t="shared" ref="G13:G14" si="6">C13*$D$2</f>
         <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I13" t="e">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2269,12 +2874,12 @@
         <v>Furniture-Office Chair</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>900</v>
@@ -2289,11 +2894,11 @@
         <v>150</v>
       </c>
       <c r="G14">
-        <f>C14*$D$2</f>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I14" t="e">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2312,7 +2917,7 @@
         <v>12</v>
       </c>
       <c r="M14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <f>SUM(G:G)</f>
@@ -2327,12 +2932,12 @@
         <v>Home Appliances-Refrigerator</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>800</v>
@@ -2351,7 +2956,7 @@
         <v>800</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I15" t="e">
         <f>Table1[[#This Row],[Sales amt]]*83</f>
@@ -2370,7 +2975,7 @@
         <v>8</v>
       </c>
       <c r="M15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <f>SUMIF(A2:A11,"Electronics",G2:G11)</f>
@@ -2385,67 +2990,67 @@
         <v>Furniture-big sofa</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:14">
       <c r="D17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="L17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N17">
         <f>N18</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:14">
+      <c r="B18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>50</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>51</v>
       </c>
-      <c r="F18" t="s">
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="K18" t="s">
-        <v>45</v>
-      </c>
       <c r="L18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="N18">
         <f>SUMIF(A2:A11,L18,G2:G11)</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:14">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D19">
         <f>SUMIFS(G2:G15,A2:A15,B19,B2:B15,C19)</f>
         <v>0</v>
       </c>
       <c r="E19" t="str">
-        <f>IFERROR(AVERAGEIFS(G2:G15,A2:A15,B19,B2:B15,C19), "value not found")</f>
+        <f>IFERROR(AVERAGEIFS(G2:G15,A2:A15,B19,B2:B15,C19),"value not found")</f>
         <v>value not found</v>
       </c>
       <c r="F19">
@@ -2453,112 +3058,114 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M19" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N19">
         <f>AVERAGEIF(A2:A11,L18,G2:G11)</f>
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="11:14">
       <c r="K20" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="N20">
         <f>COUNTIF(A2:A11,L18)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:5">
       <c r="C21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" t="e">
         <f>AVERAGEIFS(G2:G15,A2:A15,B19,B2:B15,C19)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E21" t="str">
-        <f>IFERROR(AVERAGEIFS(G2:G15,A2:A15,B19,B2:B15,C19), "value not found")</f>
+        <f>IFERROR(AVERAGEIFS(G2:G15,A2:A15,B19,B2:B15,C19),"value not found")</f>
         <v>value not found</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J15">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="between" text="High">
       <formula>NOT(ISERROR(SEARCH("High",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18" xr:uid="{27452A94-6F06-4055-B482-F4C34E850576}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18">
       <formula1>$A$2:$A$11</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E49D5A-16FB-439F-9BF8-31B7FEAB1E71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" customWidth="1"/>
-    <col min="6" max="6" width="16.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7272727272727" customWidth="1"/>
+    <col min="2" max="2" width="17.8181818181818" customWidth="1"/>
+    <col min="3" max="3" width="16.6363636363636" customWidth="1"/>
+    <col min="5" max="5" width="12.8181818181818" customWidth="1"/>
+    <col min="6" max="6" width="16.2727272727273" customWidth="1"/>
+    <col min="8" max="8" width="13.1818181818182" customWidth="1"/>
+    <col min="11" max="11" width="10.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>1200</v>
@@ -2577,12 +3184,12 @@
         <v>1200</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -2600,19 +3207,19 @@
         <v>50</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G11" si="0">C3*$D$2</f>
+        <f t="shared" ref="G3:G12" si="0">C3*$D$2</f>
         <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>900</v>
@@ -2627,19 +3234,19 @@
         <v>150</v>
       </c>
       <c r="G4">
-        <f>C4*$D$2</f>
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>800</v>
@@ -2658,15 +3265,15 @@
         <v>800</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>350</v>
@@ -2685,15 +3292,15 @@
         <v>350</v>
       </c>
       <c r="H6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C7">
         <v>700</v>
@@ -2712,15 +3319,15 @@
         <v>700</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -2739,15 +3346,15 @@
         <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -2766,15 +3373,15 @@
         <v>500</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -2793,15 +3400,15 @@
         <v>500</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>150</v>
@@ -2820,15 +3427,15 @@
         <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>1200</v>
@@ -2843,16 +3450,16 @@
         <v>200</v>
       </c>
       <c r="G12">
-        <f>C12*$D$2</f>
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2870,19 +3477,19 @@
         <v>50</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="1">C13*$D$2</f>
+        <f t="shared" ref="G13:G14" si="1">C13*$D$2</f>
         <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>900</v>
@@ -2897,19 +3504,19 @@
         <v>150</v>
       </c>
       <c r="G14">
-        <f>C14*$D$2</f>
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
       <c r="H14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>800</v>
@@ -2928,10 +3535,10 @@
         <v>800</v>
       </c>
       <c r="H15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -2939,8 +3546,8 @@
         <f>FIND("Machine",B10)</f>
         <v>9</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>66</v>
+      <c r="E18" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="H18">
         <v>2023</v>
@@ -2951,256 +3558,258 @@
       <c r="J18">
         <v>15</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="10">
         <f>DATE(H18,I18,J18)</f>
         <v>45275</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B19">
         <f>SEARCH("Machine",B10)</f>
         <v>9</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="10">
         <f>DATE(2023,10,15)</f>
         <v>45214</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="str">
         <f>SUBSTITUTE(B11,"Washing","wash")</f>
         <v>Microwave Oven</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>68</v>
+      <c r="E20" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="F20">
         <f ca="1">WEEKDAY(C22,2)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B21" t="str">
         <f>REPLACE(B10,1,2,"we")</f>
         <v>weshing Machine</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="10">
         <f>EOMONTH(F19,1)</f>
         <v>45260</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="5">
+    <row r="22" spans="1:5">
+      <c r="A22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="11">
         <f ca="1">NOW()</f>
-        <v>45581.453976041666</v>
-      </c>
-      <c r="E22" s="7" t="s">
+        <v>45673.5541203704</v>
+      </c>
+      <c r="E22" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
-        <v>64</v>
+    <row r="23" spans="1:5">
+      <c r="A23" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="C23">
         <f ca="1">DAY(C22)</f>
         <v>16</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E23" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5">
       <c r="C24">
         <f ca="1">MONTH(C22)</f>
-        <v>10</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5">
       <c r="C25">
         <f ca="1">YEAR(C22)</f>
-        <v>2024</v>
-      </c>
-      <c r="E25" s="7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:5">
       <c r="C26" t="str">
-        <f ca="1">TEXT(C22, "YYYY")</f>
-        <v>2024</v>
-      </c>
-      <c r="E26" s="7" t="s">
+        <f ca="1">TEXT(C22,"YYYY")</f>
+        <v>2025</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:5">
       <c r="C27" t="str">
         <f ca="1">TEXT(C22,"MMM")</f>
-        <v>Oct</v>
-      </c>
-      <c r="E27" s="7" t="s">
+        <v>Jan</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:3">
       <c r="C28" t="str">
         <f ca="1">TEXT(C22,"MMMM")</f>
-        <v>October</v>
+        <v>January</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FAFCF4E-2A8F-4DD6-B774-E30961ED0204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
     <col min="7" max="7" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="3">
         <v>35</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="10">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="4">
         <v>25</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="C3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B4" s="11">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="5">
         <v>48</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="C4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="G4" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="10">
+      <c r="G4" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="4">
         <v>37</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" s="14" t="str">
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="7" t="str">
         <f>VLOOKUP(F5,A2:C9,3,0)</f>
         <v>Netflix</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="5">
         <v>52</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="10">
+      <c r="C6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="4">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>91</v>
+      <c r="C7" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="F7">
         <v>33</v>
@@ -3210,52 +3819,54 @@
         <v>Tesla</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="11">
+    <row r="8" spans="1:3">
+      <c r="A8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="5">
         <v>33</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="C8" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="8">
         <v>45</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>95</v>
+      <c r="C9" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F003D105-6D18-4C89-9F62-8BD8911C5015}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showFormulas="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="E4" workbookViewId="0">
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="1" max="1" width="18.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="13.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="8" max="8" width="13.90625" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.9090909090909" customWidth="1"/>
+    <col min="9" max="9" width="12.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="16.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3269,7 +3880,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -3283,7 +3894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -3297,7 +3908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -3324,7 +3935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>106</v>
       </c>
@@ -3337,22 +3948,22 @@
       <c r="D5">
         <v>32</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>19327</v>
@@ -3361,7 +3972,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I6">
         <f>VLOOKUP(H6,A2:C13,3,0)</f>
@@ -3372,12 +3983,12 @@
         <v>Warsaw</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>18996</v>
@@ -3386,9 +3997,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
@@ -3400,12 +4011,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" t="s">
         <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>111</v>
       </c>
       <c r="C9">
         <v>12566</v>
@@ -3414,12 +4025,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10">
         <v>16406</v>
@@ -3428,15 +4039,15 @@
         <v>42</v>
       </c>
       <c r="I10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B11" t="s">
         <v>107</v>
@@ -3448,16 +4059,16 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J11" t="e">
         <f>VLOOKUP(I11,A2:B13,2,0)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -3469,12 +4080,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C13">
         <v>14562</v>
@@ -3483,12 +4094,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="8:8">
       <c r="H14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="9:11">
       <c r="I15">
         <f>MATCH(H6,A2:A13,0)</f>
         <v>9</v>
@@ -3498,23 +4109,23 @@
         <v>16406</v>
       </c>
       <c r="K15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10">
+      <c r="H16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="H16" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:10">
       <c r="H17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I17">
         <f>MATCH(H6,A2:A13,0)</f>
@@ -3525,42 +4136,44 @@
         <v>16406</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="9:10">
       <c r="I18">
         <v>9</v>
       </c>
       <c r="J18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659339B-658E-4168-8155-37B6870C8BAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="14.90625" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="6" max="6" width="15.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.36328125" customWidth="1"/>
-    <col min="11" max="11" width="13.6328125" customWidth="1"/>
-    <col min="12" max="12" width="25.90625" customWidth="1"/>
-    <col min="13" max="13" width="30.81640625" customWidth="1"/>
-    <col min="15" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="14.9090909090909" customWidth="1"/>
+    <col min="3" max="3" width="10.5454545454545" customWidth="1"/>
+    <col min="4" max="4" width="13.7272727272727" customWidth="1"/>
+    <col min="6" max="6" width="15.5454545454545" customWidth="1"/>
+    <col min="10" max="10" width="12.3636363636364" customWidth="1"/>
+    <col min="11" max="11" width="13.6363636363636" customWidth="1"/>
+    <col min="12" max="12" width="25.9090909090909" customWidth="1"/>
+    <col min="13" max="13" width="30.8181818181818" customWidth="1"/>
+    <col min="15" max="15" width="12.8181818181818" customWidth="1"/>
+    <col min="16" max="16" width="20.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" ht="31.5" customHeight="1" spans="1:13">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -3577,31 +4190,31 @@
         <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -3618,19 +4231,19 @@
         <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
         <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
         <v>107</v>
@@ -3639,10 +4252,10 @@
         <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -3683,7 +4296,7 @@
         <v>14562</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>78</v>
       </c>
@@ -3724,16 +4337,16 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:5">
       <c r="D7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E7">
         <f>HLOOKUP(D7,B1:M3,3,0)</f>
         <v>16406</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="10:13">
       <c r="J8" t="s">
         <v>77</v>
       </c>
@@ -3747,7 +4360,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="10:13">
       <c r="J9" t="s">
         <v>100</v>
       </c>
@@ -3761,7 +4374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="10:16">
       <c r="J10" t="s">
         <v>102</v>
       </c>
@@ -3775,13 +4388,13 @@
         <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="10:16">
       <c r="J11" t="s">
         <v>104</v>
       </c>
@@ -3802,7 +4415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="10:16">
       <c r="J12" t="s">
         <v>106</v>
       </c>
@@ -3820,12 +4433,12 @@
         <v>William Johnson</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="10:13">
       <c r="J13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L13">
         <v>19327</v>
@@ -3834,12 +4447,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="10:16">
       <c r="J14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14">
         <v>18996</v>
@@ -3852,9 +4465,9 @@
         <v>William Johnson</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="10:13">
       <c r="J15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K15" t="s">
         <v>105</v>
@@ -3866,12 +4479,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="10:16">
       <c r="J16" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" t="s">
         <v>113</v>
-      </c>
-      <c r="K16" t="s">
-        <v>111</v>
       </c>
       <c r="L16">
         <v>12566</v>
@@ -3880,19 +4493,19 @@
         <v>37</v>
       </c>
       <c r="O16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P16">
         <f>MATCH(O16,J8:M8,0)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:13">
       <c r="J17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L17">
         <v>16406</v>
@@ -3901,9 +4514,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="10:13">
       <c r="J18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s">
         <v>107</v>
@@ -3915,9 +4528,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:13">
       <c r="J19" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="K19" t="s">
         <v>101</v>
@@ -3929,12 +4542,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="10:13">
       <c r="J20" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L20">
         <v>14562</v>
@@ -3943,32 +4556,32 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="14:15">
       <c r="N21" t="s">
         <v>130</v>
       </c>
       <c r="O21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="10:15" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="14:15">
       <c r="N22" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="O22">
         <f>_xlfn.XLOOKUP(N22,J9:J20,L9:L20)</f>
         <v>16406</v>
       </c>
     </row>
-    <row r="23" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="12:13">
       <c r="L23" t="s">
         <v>99</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="10:15" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="12:13">
       <c r="L24">
         <v>18996</v>
       </c>
@@ -3977,24 +4590,24 @@
         <v>Michael Kaye</v>
       </c>
     </row>
-    <row r="27" spans="10:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="11:15">
       <c r="K27" t="s">
+        <v>131</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="10:15" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="10:15">
       <c r="J28" t="s">
         <v>76</v>
       </c>
@@ -4016,35 +4629,39 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="J8:M20" xr:uid="{4659339B-658E-4168-8155-37B6870C8BAE}"/>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="J8:M20" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F3615D-6FDE-4D48-8210-A422D73C0DB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.3636363636364" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C3">
         <f>VLOOKUP(B3,Sheet5!A2:C13,3,0)</f>
@@ -4053,5 +4670,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>